--- a/input/scripts/SDOHCC_IG_Supplemental_Guide_v.2.0.xlsx
+++ b/input/scripts/SDOHCC_IG_Supplemental_Guide_v.2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\fhir\fsh\gravity\fhir-sdoh-clinicalcare\input\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA90B34A-10C5-4EA5-9FDD-B2E157E7A55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B966B03F-7175-41F8-89E0-BD00F5270796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3900" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read-me" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ObservationScreeningResponse!$A$1:$E$277</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'VSAC Value Sets'!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'VSAC Value Sets'!$A$1:$X$1</definedName>
     <definedName name="Bindingsold">#REF!</definedName>
     <definedName name="rpt_SDOHPanelsQuestionsbyDomain">ObservationScreeningResponse!$A$1:$E$276</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="608">
   <si>
     <t>Condition</t>
   </si>
@@ -1918,6 +1918,9 @@
   </si>
   <si>
     <t>Observation.Screening_Response</t>
+  </si>
+  <si>
+    <t>Observation.valueCodeableConcept</t>
   </si>
 </sst>
 </file>
@@ -2952,9 +2955,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
@@ -2967,12 +2970,12 @@
     <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="8" width="30.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>564</v>
       </c>
@@ -2994,8 +2997,11 @@
       <c r="G1" s="3" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>161</v>
       </c>
@@ -3017,8 +3023,11 @@
       <c r="G2" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>258</v>
       </c>
@@ -3040,8 +3049,11 @@
       <c r="G3" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3063,8 +3075,11 @@
       <c r="G4" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>103</v>
       </c>
@@ -3086,8 +3101,11 @@
       <c r="G5" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -3109,8 +3127,11 @@
       <c r="G6" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>567</v>
       </c>
@@ -3132,8 +3153,11 @@
       <c r="G7" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>464</v>
       </c>
@@ -3155,8 +3179,11 @@
       <c r="G8" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
@@ -3178,8 +3205,11 @@
       <c r="G9" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -3201,8 +3231,11 @@
       <c r="G10" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>259</v>
       </c>
@@ -3224,8 +3257,11 @@
       <c r="G11" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>200</v>
       </c>
@@ -3247,8 +3283,11 @@
       <c r="G12" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>94</v>
       </c>
@@ -3270,8 +3309,11 @@
       <c r="G13" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>563</v>
       </c>
@@ -3293,8 +3335,11 @@
       <c r="G14" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>260</v>
       </c>
@@ -3316,8 +3361,11 @@
       <c r="G15" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>110</v>
       </c>
@@ -3339,8 +3387,11 @@
       <c r="G16" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
@@ -3362,8 +3413,11 @@
       <c r="G17" s="6" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>148</v>
       </c>
@@ -3384,6 +3438,9 @@
       </c>
       <c r="G18" s="6" t="s">
         <v>605</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -3475,9 +3532,26 @@
     <hyperlink ref="G16" r:id="rId82" xr:uid="{EF05C46A-3188-464B-9C3A-FE9AE97B54FC}"/>
     <hyperlink ref="G17" r:id="rId83" xr:uid="{1C6ABD9B-DA3A-4BE0-8312-A68DB05FCDCA}"/>
     <hyperlink ref="G18" r:id="rId84" xr:uid="{AB57FBC7-AFFF-4EFB-A86A-39F84340057F}"/>
+    <hyperlink ref="H2" r:id="rId85" display="Observation.code" xr:uid="{39CCCCC1-259C-48D1-A976-5093FDE0A2FF}"/>
+    <hyperlink ref="H3" r:id="rId86" display="Observation.code" xr:uid="{73E16F30-2068-49C3-A317-A4407ED02E1D}"/>
+    <hyperlink ref="H4" r:id="rId87" display="Observation.code" xr:uid="{1BE0D895-9E20-4BCE-B5D5-E835582BBEA6}"/>
+    <hyperlink ref="H5" r:id="rId88" display="Observation.code" xr:uid="{3BEAB64D-828A-415F-AB06-E4E9385D104A}"/>
+    <hyperlink ref="H6" r:id="rId89" display="Observation.code" xr:uid="{6B0033FB-33BF-4F54-BB53-6FC1E9C9E706}"/>
+    <hyperlink ref="H7" r:id="rId90" display="Observation.code" xr:uid="{EB537135-845B-46B9-AEAE-1B77004D7316}"/>
+    <hyperlink ref="H9" r:id="rId91" display="Observation.code" xr:uid="{8CB36A3D-EAAC-419B-A6E5-0FAB6ED0E08D}"/>
+    <hyperlink ref="H8" r:id="rId92" display="Observation.code" xr:uid="{7CA33FF8-3F46-402C-9BFC-A5FFD4792E59}"/>
+    <hyperlink ref="H10" r:id="rId93" display="Observation.code" xr:uid="{E87C007B-FBA9-48DE-BBE2-D08CAC5DAA8D}"/>
+    <hyperlink ref="H11" r:id="rId94" display="Observation.code" xr:uid="{002E5D17-5E39-4F3F-8F7B-F50CCE4C99A8}"/>
+    <hyperlink ref="H12" r:id="rId95" display="Observation.code" xr:uid="{A6C0D9ED-A22C-47F2-9ADB-15616EC08AAD}"/>
+    <hyperlink ref="H13" r:id="rId96" display="Observation.code" xr:uid="{D57C777F-D399-44F2-B92B-1119AB6DBF06}"/>
+    <hyperlink ref="H14" r:id="rId97" display="Observation.code" xr:uid="{4656C2A6-E6B0-43CC-8322-51BDDCAA8EB2}"/>
+    <hyperlink ref="H15" r:id="rId98" display="Observation.code" xr:uid="{0B79C82B-9BD7-4748-AD91-4975C9814AFB}"/>
+    <hyperlink ref="H16" r:id="rId99" display="Observation.code" xr:uid="{F3B7F10D-6308-4EFE-9E9C-B2DE9F960371}"/>
+    <hyperlink ref="H17" r:id="rId100" display="Observation.code" xr:uid="{3AB88068-CC56-4E5F-87F1-A613A33D8E32}"/>
+    <hyperlink ref="H18" r:id="rId101" display="Observation.code" xr:uid="{FC1BE06C-9747-48B9-A71E-43E4868A06D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>
 
